--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24515380857508</v>
+        <v>2.346035666666667</v>
       </c>
       <c r="H2">
-        <v>2.24515380857508</v>
+        <v>7.038107</v>
       </c>
       <c r="I2">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424448</v>
       </c>
       <c r="J2">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424447</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.16549738696048</v>
+        <v>1.285689666666667</v>
       </c>
       <c r="N2">
-        <v>1.16549738696048</v>
+        <v>3.857069</v>
       </c>
       <c r="O2">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="P2">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="Q2">
-        <v>2.616720897218626</v>
+        <v>3.016273814264778</v>
       </c>
       <c r="R2">
-        <v>2.616720897218626</v>
+        <v>27.146464328383</v>
       </c>
       <c r="S2">
-        <v>0.01502806668610156</v>
+        <v>0.01575398898210404</v>
       </c>
       <c r="T2">
-        <v>0.01502806668610156</v>
+        <v>0.01575398898210404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24515380857508</v>
+        <v>2.346035666666667</v>
       </c>
       <c r="H3">
-        <v>2.24515380857508</v>
+        <v>7.038107</v>
       </c>
       <c r="I3">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424448</v>
       </c>
       <c r="J3">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424447</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.87889524277116</v>
+        <v>7.890688</v>
       </c>
       <c r="N3">
-        <v>7.87889524277116</v>
+        <v>23.672064</v>
       </c>
       <c r="O3">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="P3">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="Q3">
-        <v>17.68933166167175</v>
+        <v>18.51183548253867</v>
       </c>
       <c r="R3">
-        <v>17.68933166167175</v>
+        <v>166.606519342848</v>
       </c>
       <c r="S3">
-        <v>0.1015914445162014</v>
+        <v>0.09668726057004987</v>
       </c>
       <c r="T3">
-        <v>0.1015914445162014</v>
+        <v>0.09668726057004985</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24515380857508</v>
+        <v>2.346035666666667</v>
       </c>
       <c r="H4">
-        <v>2.24515380857508</v>
+        <v>7.038107</v>
       </c>
       <c r="I4">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424448</v>
       </c>
       <c r="J4">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424447</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.49934457713543</v>
+        <v>6.536593666666666</v>
       </c>
       <c r="N4">
-        <v>6.49934457713543</v>
+        <v>19.609781</v>
       </c>
       <c r="O4">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927831</v>
       </c>
       <c r="P4">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927832</v>
       </c>
       <c r="Q4">
-        <v>14.5920282305974</v>
+        <v>15.33508188050744</v>
       </c>
       <c r="R4">
-        <v>14.5920282305974</v>
+        <v>138.015736924567</v>
       </c>
       <c r="S4">
-        <v>0.08380334852218393</v>
+        <v>0.08009508614325361</v>
       </c>
       <c r="T4">
-        <v>0.08380334852218393</v>
+        <v>0.08009508614325361</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.24515380857508</v>
+        <v>2.346035666666667</v>
       </c>
       <c r="H5">
-        <v>2.24515380857508</v>
+        <v>7.038107</v>
       </c>
       <c r="I5">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424448</v>
       </c>
       <c r="J5">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424447</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.35076331329085</v>
+        <v>5.505106</v>
       </c>
       <c r="N5">
-        <v>5.35076331329085</v>
+        <v>16.515318</v>
       </c>
       <c r="O5">
-        <v>0.2312257022960731</v>
+        <v>0.231946855741777</v>
       </c>
       <c r="P5">
-        <v>0.2312257022960731</v>
+        <v>0.2319468557417771</v>
       </c>
       <c r="Q5">
-        <v>12.01328663161877</v>
+        <v>12.91517502478067</v>
       </c>
       <c r="R5">
-        <v>12.01328663161877</v>
+        <v>116.236575223026</v>
       </c>
       <c r="S5">
-        <v>0.06899340040854784</v>
+        <v>0.06745591997652739</v>
       </c>
       <c r="T5">
-        <v>0.06899340040854784</v>
+        <v>0.06745591997652739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.24515380857508</v>
+        <v>2.346035666666667</v>
       </c>
       <c r="H6">
-        <v>2.24515380857508</v>
+        <v>7.038107</v>
       </c>
       <c r="I6">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424448</v>
       </c>
       <c r="J6">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424447</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.24636686680524</v>
+        <v>2.516264666666667</v>
       </c>
       <c r="N6">
-        <v>2.24636686680524</v>
+        <v>7.548794</v>
       </c>
       <c r="O6">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="P6">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="Q6">
-        <v>5.043439126464654</v>
+        <v>5.903246654773112</v>
       </c>
       <c r="R6">
-        <v>5.043439126464654</v>
+        <v>53.129219892958</v>
       </c>
       <c r="S6">
-        <v>0.02896493072699001</v>
+        <v>0.03083263937050985</v>
       </c>
       <c r="T6">
-        <v>0.02896493072699001</v>
+        <v>0.03083263937050985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.91435345008879</v>
+        <v>2.935458666666667</v>
       </c>
       <c r="H7">
-        <v>2.91435345008879</v>
+        <v>8.806376</v>
       </c>
       <c r="I7">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="J7">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.16549738696048</v>
+        <v>1.285689666666667</v>
       </c>
       <c r="N7">
-        <v>1.16549738696048</v>
+        <v>3.857069</v>
       </c>
       <c r="O7">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="P7">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="Q7">
-        <v>3.396671330757745</v>
+        <v>3.774088874660444</v>
       </c>
       <c r="R7">
-        <v>3.396671330757745</v>
+        <v>33.966799871944</v>
       </c>
       <c r="S7">
-        <v>0.01950739313606357</v>
+        <v>0.01971205474373513</v>
       </c>
       <c r="T7">
-        <v>0.01950739313606357</v>
+        <v>0.01971205474373514</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.91435345008879</v>
+        <v>2.935458666666667</v>
       </c>
       <c r="H8">
-        <v>2.91435345008879</v>
+        <v>8.806376</v>
       </c>
       <c r="I8">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="J8">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.87889524277116</v>
+        <v>7.890688</v>
       </c>
       <c r="N8">
-        <v>7.87889524277116</v>
+        <v>23.672064</v>
       </c>
       <c r="O8">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="P8">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="Q8">
-        <v>22.96188553365828</v>
+        <v>23.16278847556267</v>
       </c>
       <c r="R8">
-        <v>22.96188553365828</v>
+        <v>208.465096280064</v>
       </c>
       <c r="S8">
-        <v>0.1318722021157218</v>
+        <v>0.1209791739440497</v>
       </c>
       <c r="T8">
-        <v>0.1318722021157218</v>
+        <v>0.1209791739440497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.91435345008879</v>
+        <v>2.935458666666667</v>
       </c>
       <c r="H9">
-        <v>2.91435345008879</v>
+        <v>8.806376</v>
       </c>
       <c r="I9">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="J9">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.49934457713543</v>
+        <v>6.536593666666666</v>
       </c>
       <c r="N9">
-        <v>6.49934457713543</v>
+        <v>19.609781</v>
       </c>
       <c r="O9">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927831</v>
       </c>
       <c r="P9">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927832</v>
       </c>
       <c r="Q9">
-        <v>18.94138729169051</v>
+        <v>19.18790052929511</v>
       </c>
       <c r="R9">
-        <v>18.94138729169051</v>
+        <v>172.691104763656</v>
       </c>
       <c r="S9">
-        <v>0.1087821141526272</v>
+        <v>0.1002183462584302</v>
       </c>
       <c r="T9">
-        <v>0.1087821141526272</v>
+        <v>0.1002183462584302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.91435345008879</v>
+        <v>2.935458666666667</v>
       </c>
       <c r="H10">
-        <v>2.91435345008879</v>
+        <v>8.806376</v>
       </c>
       <c r="I10">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="J10">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.35076331329085</v>
+        <v>5.505106</v>
       </c>
       <c r="N10">
-        <v>5.35076331329085</v>
+        <v>16.515318</v>
       </c>
       <c r="O10">
-        <v>0.2312257022960731</v>
+        <v>0.231946855741777</v>
       </c>
       <c r="P10">
-        <v>0.2312257022960731</v>
+        <v>0.2319468557417771</v>
       </c>
       <c r="Q10">
-        <v>15.59401552269771</v>
+        <v>16.16001111861867</v>
       </c>
       <c r="R10">
-        <v>15.59401552269771</v>
+        <v>145.440100067568</v>
       </c>
       <c r="S10">
-        <v>0.08955785289455137</v>
+        <v>0.08440368905150367</v>
       </c>
       <c r="T10">
-        <v>0.08955785289455137</v>
+        <v>0.08440368905150368</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.91435345008879</v>
+        <v>2.935458666666667</v>
       </c>
       <c r="H11">
-        <v>2.91435345008879</v>
+        <v>8.806376</v>
       </c>
       <c r="I11">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="J11">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.24636686680524</v>
+        <v>2.516264666666667</v>
       </c>
       <c r="N11">
-        <v>2.24636686680524</v>
+        <v>7.548794</v>
       </c>
       <c r="O11">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="P11">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="Q11">
-        <v>6.546707028438997</v>
+        <v>7.386390923393779</v>
       </c>
       <c r="R11">
-        <v>6.546707028438997</v>
+        <v>66.477518310544</v>
       </c>
       <c r="S11">
-        <v>0.03759833534494492</v>
+        <v>0.03857909738642978</v>
       </c>
       <c r="T11">
-        <v>0.03759833534494492</v>
+        <v>0.03857909738642978</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.24578317728803</v>
+        <v>1.2753</v>
       </c>
       <c r="H12">
-        <v>1.24578317728803</v>
+        <v>3.8259</v>
       </c>
       <c r="I12">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="J12">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.16549738696048</v>
+        <v>1.285689666666667</v>
       </c>
       <c r="N12">
-        <v>1.16549738696048</v>
+        <v>3.857069</v>
       </c>
       <c r="O12">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="P12">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="Q12">
-        <v>1.451957037848523</v>
+        <v>1.6396400319</v>
       </c>
       <c r="R12">
-        <v>1.451957037848523</v>
+        <v>14.7567602871</v>
       </c>
       <c r="S12">
-        <v>0.008338721647132947</v>
+        <v>0.008563834912801386</v>
       </c>
       <c r="T12">
-        <v>0.008338721647132947</v>
+        <v>0.008563834912801389</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.24578317728803</v>
+        <v>1.2753</v>
       </c>
       <c r="H13">
-        <v>1.24578317728803</v>
+        <v>3.8259</v>
       </c>
       <c r="I13">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="J13">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.87889524277116</v>
+        <v>7.890688</v>
       </c>
       <c r="N13">
-        <v>7.87889524277116</v>
+        <v>23.672064</v>
       </c>
       <c r="O13">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="P13">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="Q13">
-        <v>9.815395149058999</v>
+        <v>10.0629944064</v>
       </c>
       <c r="R13">
-        <v>9.815395149058999</v>
+        <v>90.56694965759999</v>
       </c>
       <c r="S13">
-        <v>0.05637070923661919</v>
+        <v>0.05255898925875292</v>
       </c>
       <c r="T13">
-        <v>0.05637070923661919</v>
+        <v>0.05255898925875292</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.24578317728803</v>
+        <v>1.2753</v>
       </c>
       <c r="H14">
-        <v>1.24578317728803</v>
+        <v>3.8259</v>
       </c>
       <c r="I14">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="J14">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.49934457713543</v>
+        <v>6.536593666666666</v>
       </c>
       <c r="N14">
-        <v>6.49934457713543</v>
+        <v>19.609781</v>
       </c>
       <c r="O14">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927831</v>
       </c>
       <c r="P14">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927832</v>
       </c>
       <c r="Q14">
-        <v>8.096774137593503</v>
+        <v>8.336117903099998</v>
       </c>
       <c r="R14">
-        <v>8.096774137593503</v>
+        <v>75.02506112789999</v>
       </c>
       <c r="S14">
-        <v>0.04650051207654319</v>
+        <v>0.04353951852045925</v>
       </c>
       <c r="T14">
-        <v>0.04650051207654319</v>
+        <v>0.04353951852045927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.24578317728803</v>
+        <v>1.2753</v>
       </c>
       <c r="H15">
-        <v>1.24578317728803</v>
+        <v>3.8259</v>
       </c>
       <c r="I15">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="J15">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.35076331329085</v>
+        <v>5.505106</v>
       </c>
       <c r="N15">
-        <v>5.35076331329085</v>
+        <v>16.515318</v>
       </c>
       <c r="O15">
-        <v>0.2312257022960731</v>
+        <v>0.231946855741777</v>
       </c>
       <c r="P15">
-        <v>0.2312257022960731</v>
+        <v>0.2319468557417771</v>
       </c>
       <c r="Q15">
-        <v>6.665890921347701</v>
+        <v>7.0206616818</v>
       </c>
       <c r="R15">
-        <v>6.665890921347701</v>
+        <v>63.1859551362</v>
       </c>
       <c r="S15">
-        <v>0.0382828193082308</v>
+        <v>0.03666889466701715</v>
       </c>
       <c r="T15">
-        <v>0.0382828193082308</v>
+        <v>0.03666889466701716</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.24578317728803</v>
+        <v>1.2753</v>
       </c>
       <c r="H16">
-        <v>1.24578317728803</v>
+        <v>3.8259</v>
       </c>
       <c r="I16">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="J16">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.24636686680524</v>
+        <v>2.516264666666667</v>
       </c>
       <c r="N16">
-        <v>2.24636686680524</v>
+        <v>7.548794</v>
       </c>
       <c r="O16">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="P16">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="Q16">
-        <v>2.798486052683189</v>
+        <v>3.2089923294</v>
       </c>
       <c r="R16">
-        <v>2.798486052683189</v>
+        <v>28.8809309646</v>
       </c>
       <c r="S16">
-        <v>0.01607196054594521</v>
+        <v>0.01676055720204788</v>
       </c>
       <c r="T16">
-        <v>0.01607196054594521</v>
+        <v>0.01676055720204789</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.478773625269042</v>
+        <v>0.839594</v>
       </c>
       <c r="H17">
-        <v>0.478773625269042</v>
+        <v>2.518782</v>
       </c>
       <c r="I17">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="J17">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.16549738696048</v>
+        <v>1.285689666666667</v>
       </c>
       <c r="N17">
-        <v>1.16549738696048</v>
+        <v>3.857069</v>
       </c>
       <c r="O17">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="P17">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="Q17">
-        <v>0.5580094091966645</v>
+        <v>1.079457329995333</v>
       </c>
       <c r="R17">
-        <v>0.5580094091966645</v>
+        <v>9.715115969957999</v>
       </c>
       <c r="S17">
-        <v>0.003204698912212256</v>
+        <v>0.005638002360055334</v>
       </c>
       <c r="T17">
-        <v>0.003204698912212256</v>
+        <v>0.005638002360055335</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.478773625269042</v>
+        <v>0.839594</v>
       </c>
       <c r="H18">
-        <v>0.478773625269042</v>
+        <v>2.518782</v>
       </c>
       <c r="I18">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="J18">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.87889524277116</v>
+        <v>7.890688</v>
       </c>
       <c r="N18">
-        <v>7.87889524277116</v>
+        <v>23.672064</v>
       </c>
       <c r="O18">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="P18">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="Q18">
-        <v>3.772207238496557</v>
+        <v>6.624974300671999</v>
       </c>
       <c r="R18">
-        <v>3.772207238496557</v>
+        <v>59.62476870604799</v>
       </c>
       <c r="S18">
-        <v>0.02166413009281094</v>
+        <v>0.03460222067569466</v>
       </c>
       <c r="T18">
-        <v>0.02166413009281094</v>
+        <v>0.03460222067569466</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.478773625269042</v>
+        <v>0.839594</v>
       </c>
       <c r="H19">
-        <v>0.478773625269042</v>
+        <v>2.518782</v>
       </c>
       <c r="I19">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="J19">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.49934457713543</v>
+        <v>6.536593666666666</v>
       </c>
       <c r="N19">
-        <v>6.49934457713543</v>
+        <v>19.609781</v>
       </c>
       <c r="O19">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927831</v>
       </c>
       <c r="P19">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927832</v>
       </c>
       <c r="Q19">
-        <v>3.111714765067819</v>
+        <v>5.488084822971333</v>
       </c>
       <c r="R19">
-        <v>3.111714765067819</v>
+        <v>49.39276340674199</v>
       </c>
       <c r="S19">
-        <v>0.01787086159906148</v>
+        <v>0.02866425038239353</v>
       </c>
       <c r="T19">
-        <v>0.01787086159906148</v>
+        <v>0.02866425038239354</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.478773625269042</v>
+        <v>0.839594</v>
       </c>
       <c r="H20">
-        <v>0.478773625269042</v>
+        <v>2.518782</v>
       </c>
       <c r="I20">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="J20">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.35076331329085</v>
+        <v>5.505106</v>
       </c>
       <c r="N20">
-        <v>5.35076331329085</v>
+        <v>16.515318</v>
       </c>
       <c r="O20">
-        <v>0.2312257022960731</v>
+        <v>0.231946855741777</v>
       </c>
       <c r="P20">
-        <v>0.2312257022960731</v>
+        <v>0.2319468557417771</v>
       </c>
       <c r="Q20">
-        <v>2.561804349460851</v>
+        <v>4.622053966964</v>
       </c>
       <c r="R20">
-        <v>2.561804349460851</v>
+        <v>41.598485702676</v>
       </c>
       <c r="S20">
-        <v>0.01471267594544155</v>
+        <v>0.02414097384855297</v>
       </c>
       <c r="T20">
-        <v>0.01471267594544155</v>
+        <v>0.02414097384855297</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.478773625269042</v>
+        <v>0.839594</v>
       </c>
       <c r="H21">
-        <v>0.478773625269042</v>
+        <v>2.518782</v>
       </c>
       <c r="I21">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="J21">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.24636686680524</v>
+        <v>2.516264666666667</v>
       </c>
       <c r="N21">
-        <v>2.24636686680524</v>
+        <v>7.548794</v>
       </c>
       <c r="O21">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="P21">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="Q21">
-        <v>1.075501208504604</v>
+        <v>2.112640716545333</v>
       </c>
       <c r="R21">
-        <v>1.075501208504604</v>
+        <v>19.013766448908</v>
       </c>
       <c r="S21">
-        <v>0.006176701496735754</v>
+        <v>0.01103431605386669</v>
       </c>
       <c r="T21">
-        <v>0.006176701496735754</v>
+        <v>0.01103431605386669</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.640384118987295</v>
+        <v>0.6704439999999999</v>
       </c>
       <c r="H22">
-        <v>0.640384118987295</v>
+        <v>2.011332</v>
       </c>
       <c r="I22">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="J22">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.16549738696048</v>
+        <v>1.285689666666667</v>
       </c>
       <c r="N22">
-        <v>1.16549738696048</v>
+        <v>3.857069</v>
       </c>
       <c r="O22">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="P22">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="Q22">
-        <v>0.7463660173306814</v>
+        <v>0.8619829228786665</v>
       </c>
       <c r="R22">
-        <v>0.7463660173306814</v>
+        <v>7.757846305908</v>
       </c>
       <c r="S22">
-        <v>0.004286448085696771</v>
+        <v>0.00450213419138886</v>
       </c>
       <c r="T22">
-        <v>0.004286448085696771</v>
+        <v>0.004502134191388861</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.640384118987295</v>
+        <v>0.6704439999999999</v>
       </c>
       <c r="H23">
-        <v>0.640384118987295</v>
+        <v>2.011332</v>
       </c>
       <c r="I23">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="J23">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.87889524277116</v>
+        <v>7.890688</v>
       </c>
       <c r="N23">
-        <v>7.87889524277116</v>
+        <v>23.672064</v>
       </c>
       <c r="O23">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="P23">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="Q23">
-        <v>5.045519388635198</v>
+        <v>5.290264425471999</v>
       </c>
       <c r="R23">
-        <v>5.045519388635198</v>
+        <v>47.61237982924799</v>
       </c>
       <c r="S23">
-        <v>0.02897687786229846</v>
+        <v>0.02763103504633839</v>
       </c>
       <c r="T23">
-        <v>0.02897687786229846</v>
+        <v>0.02763103504633839</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.640384118987295</v>
+        <v>0.6704439999999999</v>
       </c>
       <c r="H24">
-        <v>0.640384118987295</v>
+        <v>2.011332</v>
       </c>
       <c r="I24">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="J24">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.49934457713543</v>
+        <v>6.536593666666666</v>
       </c>
       <c r="N24">
-        <v>6.49934457713543</v>
+        <v>19.609781</v>
       </c>
       <c r="O24">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927831</v>
       </c>
       <c r="P24">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927832</v>
       </c>
       <c r="Q24">
-        <v>4.162077051023726</v>
+        <v>4.382420004254666</v>
       </c>
       <c r="R24">
-        <v>4.162077051023726</v>
+        <v>39.44178003829199</v>
       </c>
       <c r="S24">
-        <v>0.02390318797161791</v>
+        <v>0.02288936638824652</v>
       </c>
       <c r="T24">
-        <v>0.02390318797161791</v>
+        <v>0.02288936638824652</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.640384118987295</v>
+        <v>0.6704439999999999</v>
       </c>
       <c r="H25">
-        <v>0.640384118987295</v>
+        <v>2.011332</v>
       </c>
       <c r="I25">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="J25">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.35076331329085</v>
+        <v>5.505106</v>
       </c>
       <c r="N25">
-        <v>5.35076331329085</v>
+        <v>16.515318</v>
       </c>
       <c r="O25">
-        <v>0.2312257022960731</v>
+        <v>0.231946855741777</v>
       </c>
       <c r="P25">
-        <v>0.2312257022960731</v>
+        <v>0.2319468557417771</v>
       </c>
       <c r="Q25">
-        <v>3.4265438502913</v>
+        <v>3.690865287064</v>
       </c>
       <c r="R25">
-        <v>3.4265438502913</v>
+        <v>33.217787583576</v>
       </c>
       <c r="S25">
-        <v>0.01967895373930151</v>
+        <v>0.01927737819817584</v>
       </c>
       <c r="T25">
-        <v>0.01967895373930151</v>
+        <v>0.01927737819817584</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.640384118987295</v>
+        <v>0.6704439999999999</v>
       </c>
       <c r="H26">
-        <v>0.640384118987295</v>
+        <v>2.011332</v>
       </c>
       <c r="I26">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="J26">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.24636686680524</v>
+        <v>2.516264666666667</v>
       </c>
       <c r="N26">
-        <v>2.24636686680524</v>
+        <v>7.548794</v>
       </c>
       <c r="O26">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="P26">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="Q26">
-        <v>1.438537666921324</v>
+        <v>1.687014548178667</v>
       </c>
       <c r="R26">
-        <v>1.438537666921324</v>
+        <v>15.183130933608</v>
       </c>
       <c r="S26">
-        <v>0.008261652976418449</v>
+        <v>0.0088112718676153</v>
       </c>
       <c r="T26">
-        <v>0.008261652976418449</v>
+        <v>0.008811271867615302</v>
       </c>
     </row>
   </sheetData>
